--- a/medicine/Psychotrope/Banjalučka_pivara/Banjalučka_pivara.xlsx
+++ b/medicine/Psychotrope/Banjalučka_pivara/Banjalučka_pivara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Banjalu%C4%8Dka_pivara</t>
+          <t>Banjalučka_pivara</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Banjalučka pivara (code BLSE : BLPV-R-A) est une brasserie bosnienne qui a son siège social à Banja Luka. Elle figure parmi les entreprises entrant dans la composition du BIRS, l'indice principal de la Bourse de Banja Luka[4].
+Banjalučka pivara (code BLSE : BLPV-R-A) est une brasserie bosnienne qui a son siège social à Banja Luka. Elle figure parmi les entreprises entrant dans la composition du BIRS, l'indice principal de la Bourse de Banja Luka.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Banjalu%C4%8Dka_pivara</t>
+          <t>Banjalučka_pivara</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine de Banjalučka pivara, la « Brasserie de Banja Luka », remonte à 1873 lorsque l'établissement a été fondé par les moines trappistes du monastère de Sainte-Marie-des-Étoiles. En 1894, la brasserie fut enregistrée comme établissement industriel et, en 1921, elle entra dans le groupe Dalmacia. Après la Seconde Guerre mondiale, elle fit partie du combinat bosnien Krajina, avant d'obtenir un statut indépendant en 1989. En 1991, l'entreprise devint une société par actions[5]. En 2010, le groupe Altima Global Special Situations Fund Ltd, basé aux îles Caïmans, détenait 66 % de son capital[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine de Banjalučka pivara, la « Brasserie de Banja Luka », remonte à 1873 lorsque l'établissement a été fondé par les moines trappistes du monastère de Sainte-Marie-des-Étoiles. En 1894, la brasserie fut enregistrée comme établissement industriel et, en 1921, elle entra dans le groupe Dalmacia. Après la Seconde Guerre mondiale, elle fit partie du combinat bosnien Krajina, avant d'obtenir un statut indépendant en 1989. En 1991, l'entreprise devint une société par actions. En 2010, le groupe Altima Global Special Situations Fund Ltd, basé aux îles Caïmans, détenait 66 % de son capital.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Banjalu%C4%8Dka_pivara</t>
+          <t>Banjalučka_pivara</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Banjalučka pivara produit diverses sortes de bières vendues sous la marque Nektar, en bouteilles ou en canettes[7]. Ses produits, autrefois réservés au marché domestique, sont désormais exportés au Royaume-Uni, au Canada et aux États-Unis[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Banjalučka pivara produit diverses sortes de bières vendues sous la marque Nektar, en bouteilles ou en canettes. Ses produits, autrefois réservés au marché domestique, sont désormais exportés au Royaume-Uni, au Canada et aux États-Unis.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Banjalu%C4%8Dka_pivara</t>
+          <t>Banjalučka_pivara</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Données boursières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 12 mars 2010, l'action de Banjalučka pivara valait 0,45 BAM (marks convertibles)[2], soit 0,23 EUR[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 12 mars 2010, l'action de Banjalučka pivara valait 0,45 BAM (marks convertibles), soit 0,23 EUR.
 </t>
         </is>
       </c>
